--- a/biology/Zoologie/Cinclidae/Cinclidae.xlsx
+++ b/biology/Zoologie/Cinclidae/Cinclidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinclus
 Les Cinclidae (ou cinclidés) sont une famille de passereaux. Elle ne comprend que le seul genre Cinclus et cinq espèces de cincles.
@@ -512,7 +524,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces espèces sont réparties de la zone paléarctique (deux espèces) à la zone néarctique (une espèce) et à la zone néotropicale (deux espèces). Elles sont souvent appelées merle d'eau.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine des noms</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de cette famille vient du latin Cinclus, qui comme le nom français cincle vient du grec « kigklizô » qui signifie « qui remue sans cesse la queue »[réf. nécessaire].
 On l'appelle aussi merle d'eau, en France et dans de nombreuses langues (allemand, espagnol, italien, etc.). Par contre, son nom néerlandais « waterspreeuw » se traduit par étourneau d'eau. L'anglais « dipper » peut se traduire par plongeur.
@@ -575,7 +591,9 @@
           <t>Particularités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont les seuls passereaux capables de plonger et de nager sous la surface de l'eau[réf. nécessaire]. Leur plumage est huileux et étanche, et leur sang qui stocke le dioxygène est adapté à la plongée[précision nécessaire].
 </t>
@@ -606,7 +624,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Cinclus cinclus – Cincle plongeur - seule espèce européenne
